--- a/Bin/Server/DataConfig/Excel/SqlServer.xlsx
+++ b/Bin/Server/DataConfig/Excel/SqlServer.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -101,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,6 +119,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -333,13 +338,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -673,21 +681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -939,9 +947,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
